--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp2-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp2-Acvr2b.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.55635</v>
+        <v>1.729584333333333</v>
       </c>
       <c r="H2">
-        <v>1.66905</v>
+        <v>5.188753</v>
       </c>
       <c r="I2">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="J2">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.047294333333333</v>
+        <v>2.110264333333333</v>
       </c>
       <c r="N2">
-        <v>3.141883</v>
+        <v>6.330793</v>
       </c>
       <c r="O2">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="P2">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="Q2">
-        <v>0.58266220235</v>
+        <v>3.649880130125445</v>
       </c>
       <c r="R2">
-        <v>5.24395982115</v>
+        <v>32.848921171129</v>
       </c>
       <c r="S2">
-        <v>0.03534347153888925</v>
+        <v>0.09489619459544804</v>
       </c>
       <c r="T2">
-        <v>0.03534347153888925</v>
+        <v>0.09489619459544804</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.55635</v>
+        <v>1.729584333333333</v>
       </c>
       <c r="H3">
-        <v>1.66905</v>
+        <v>5.188753</v>
       </c>
       <c r="I3">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="J3">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.56316</v>
       </c>
       <c r="O3">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="P3">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="Q3">
-        <v>0.289888022</v>
+        <v>0.9012056821644443</v>
       </c>
       <c r="R3">
-        <v>2.608992198</v>
+        <v>8.110851139479999</v>
       </c>
       <c r="S3">
-        <v>0.01758420061177647</v>
+        <v>0.02343117766507617</v>
       </c>
       <c r="T3">
-        <v>0.01758420061177647</v>
+        <v>0.02343117766507617</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.55635</v>
+        <v>1.729584333333333</v>
       </c>
       <c r="H4">
-        <v>1.66905</v>
+        <v>5.188753</v>
       </c>
       <c r="I4">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="J4">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.622562</v>
+        <v>2.065388333333333</v>
       </c>
       <c r="N4">
-        <v>4.867686</v>
+        <v>6.196165</v>
       </c>
       <c r="O4">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="P4">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="Q4">
-        <v>0.9027123687</v>
+        <v>3.572263303582778</v>
       </c>
       <c r="R4">
-        <v>8.1244113183</v>
+        <v>32.150369732245</v>
       </c>
       <c r="S4">
-        <v>0.05475726550009967</v>
+        <v>0.0928781717528127</v>
       </c>
       <c r="T4">
-        <v>0.05475726550009966</v>
+        <v>0.0928781717528127</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.55635</v>
+        <v>1.729584333333333</v>
       </c>
       <c r="H5">
-        <v>1.66905</v>
+        <v>5.188753</v>
       </c>
       <c r="I5">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="J5">
-        <v>0.1200566932586554</v>
+        <v>0.2476387648475193</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3665986666666667</v>
+        <v>0.8101876666666666</v>
       </c>
       <c r="N5">
-        <v>1.099796</v>
+        <v>2.430563</v>
       </c>
       <c r="O5">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="P5">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="Q5">
-        <v>0.2039571682</v>
+        <v>1.401287895326556</v>
       </c>
       <c r="R5">
-        <v>1.8356145138</v>
+        <v>12.611591057939</v>
       </c>
       <c r="S5">
-        <v>0.01237175560789</v>
+        <v>0.03643322083418239</v>
       </c>
       <c r="T5">
-        <v>0.01237175560789</v>
+        <v>0.03643322083418239</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>4.835809</v>
       </c>
       <c r="I6">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="J6">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.047294333333333</v>
+        <v>2.110264333333333</v>
       </c>
       <c r="N6">
-        <v>3.141883</v>
+        <v>6.330793</v>
       </c>
       <c r="O6">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="P6">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="Q6">
-        <v>1.688171787594111</v>
+        <v>3.401611751837445</v>
       </c>
       <c r="R6">
-        <v>15.193546088347</v>
+        <v>30.614505766537</v>
       </c>
       <c r="S6">
-        <v>0.1024021316072044</v>
+        <v>0.08844126361197363</v>
       </c>
       <c r="T6">
-        <v>0.1024021316072044</v>
+        <v>0.08844126361197363</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4.835809</v>
       </c>
       <c r="I7">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="J7">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.56316</v>
       </c>
       <c r="O7">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="P7">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="Q7">
         <v>0.8399047996044444</v>
@@ -883,10 +883,10 @@
         <v>7.55914319644</v>
       </c>
       <c r="S7">
-        <v>0.05094744649724944</v>
+        <v>0.02183736628692372</v>
       </c>
       <c r="T7">
-        <v>0.05094744649724944</v>
+        <v>0.02183736628692372</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4.835809</v>
       </c>
       <c r="I8">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="J8">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.622562</v>
+        <v>2.065388333333333</v>
       </c>
       <c r="N8">
-        <v>4.867686</v>
+        <v>6.196165</v>
       </c>
       <c r="O8">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="P8">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="Q8">
-        <v>2.615466640886</v>
+        <v>3.329274496942778</v>
       </c>
       <c r="R8">
-        <v>23.539199767974</v>
+        <v>29.963470472485</v>
       </c>
       <c r="S8">
-        <v>0.158650536125803</v>
+        <v>0.08656050863585092</v>
       </c>
       <c r="T8">
-        <v>0.158650536125803</v>
+        <v>0.08656050863585092</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>4.835809</v>
       </c>
       <c r="I9">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="J9">
-        <v>0.3478453238491627</v>
+        <v>0.2307941364328804</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3665986666666667</v>
+        <v>0.8101876666666666</v>
       </c>
       <c r="N9">
-        <v>1.099796</v>
+        <v>2.430563</v>
       </c>
       <c r="O9">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="P9">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="Q9">
-        <v>0.5909337105515556</v>
+        <v>1.305970936718556</v>
       </c>
       <c r="R9">
-        <v>5.318403394964</v>
+        <v>11.753738430467</v>
       </c>
       <c r="S9">
-        <v>0.03584520961890591</v>
+        <v>0.0339549978981321</v>
       </c>
       <c r="T9">
-        <v>0.03584520961890591</v>
+        <v>0.0339549978981321</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.086394</v>
+        <v>2.743651333333334</v>
       </c>
       <c r="H10">
-        <v>6.259182</v>
+        <v>8.230954000000001</v>
       </c>
       <c r="I10">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309039</v>
       </c>
       <c r="J10">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309038</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.047294333333333</v>
+        <v>2.110264333333333</v>
       </c>
       <c r="N10">
-        <v>3.141883</v>
+        <v>6.330793</v>
       </c>
       <c r="O10">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="P10">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="Q10">
-        <v>2.185068613300666</v>
+        <v>5.789829551835778</v>
       </c>
       <c r="R10">
-        <v>19.665617519706</v>
+        <v>52.108465966522</v>
       </c>
       <c r="S10">
-        <v>0.1325431957543081</v>
+        <v>0.1505344757189601</v>
       </c>
       <c r="T10">
-        <v>0.1325431957543081</v>
+        <v>0.1505344757189601</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.086394</v>
+        <v>2.743651333333334</v>
       </c>
       <c r="H11">
-        <v>6.259182</v>
+        <v>8.230954000000001</v>
       </c>
       <c r="I11">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309039</v>
       </c>
       <c r="J11">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309038</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.56316</v>
       </c>
       <c r="O11">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="P11">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="Q11">
-        <v>1.087122548346666</v>
+        <v>1.429588672737778</v>
       </c>
       <c r="R11">
-        <v>9.78410293512</v>
+        <v>12.86629805464</v>
       </c>
       <c r="S11">
-        <v>0.06594332821282783</v>
+        <v>0.03716903570608764</v>
       </c>
       <c r="T11">
-        <v>0.06594332821282783</v>
+        <v>0.03716903570608764</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.086394</v>
+        <v>2.743651333333334</v>
       </c>
       <c r="H12">
-        <v>6.259182</v>
+        <v>8.230954000000001</v>
       </c>
       <c r="I12">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309039</v>
       </c>
       <c r="J12">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309038</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.622562</v>
+        <v>2.065388333333333</v>
       </c>
       <c r="N12">
-        <v>4.867686</v>
+        <v>6.196165</v>
       </c>
       <c r="O12">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="P12">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="Q12">
-        <v>3.385303621428</v>
+        <v>5.666705454601112</v>
       </c>
       <c r="R12">
-        <v>30.467732592852</v>
+        <v>51.00034909141</v>
       </c>
       <c r="S12">
-        <v>0.2053477670455917</v>
+        <v>0.1473332724262459</v>
       </c>
       <c r="T12">
-        <v>0.2053477670455917</v>
+        <v>0.1473332724262459</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.086394</v>
+        <v>2.743651333333334</v>
       </c>
       <c r="H13">
-        <v>6.259182</v>
+        <v>8.230954000000001</v>
       </c>
       <c r="I13">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309039</v>
       </c>
       <c r="J13">
-        <v>0.4502301868872095</v>
+        <v>0.3928310486309038</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3665986666666667</v>
+        <v>0.8101876666666666</v>
       </c>
       <c r="N13">
-        <v>1.099796</v>
+        <v>2.430563</v>
       </c>
       <c r="O13">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="P13">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="Q13">
-        <v>0.7648692585413334</v>
+        <v>2.222872471900223</v>
       </c>
       <c r="R13">
-        <v>6.883823326872</v>
+        <v>20.005852247102</v>
       </c>
       <c r="S13">
-        <v>0.04639589587448196</v>
+        <v>0.05779426477961021</v>
       </c>
       <c r="T13">
-        <v>0.04639589587448196</v>
+        <v>0.05779426477961021</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3793803333333334</v>
+        <v>0.8991316666666668</v>
       </c>
       <c r="H14">
-        <v>1.138141</v>
+        <v>2.697395</v>
       </c>
       <c r="I14">
-        <v>0.08186779600497247</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="J14">
-        <v>0.08186779600497246</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1.047294333333333</v>
+        <v>2.110264333333333</v>
       </c>
       <c r="N14">
-        <v>3.141883</v>
+        <v>6.330793</v>
       </c>
       <c r="O14">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="P14">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="Q14">
-        <v>0.3973228732781112</v>
+        <v>1.897405487137222</v>
       </c>
       <c r="R14">
-        <v>3.575905859503</v>
+        <v>17.076649384235</v>
       </c>
       <c r="S14">
-        <v>0.02410104792591172</v>
+        <v>0.0493321845963353</v>
       </c>
       <c r="T14">
-        <v>0.02410104792591172</v>
+        <v>0.0493321845963353</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3793803333333334</v>
+        <v>0.8991316666666668</v>
       </c>
       <c r="H15">
-        <v>1.138141</v>
+        <v>2.697395</v>
       </c>
       <c r="I15">
-        <v>0.08186779600497247</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="J15">
-        <v>0.08186779600497246</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.56316</v>
       </c>
       <c r="O15">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="P15">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="Q15">
-        <v>0.1976773872844445</v>
+        <v>0.4684955520222222</v>
       </c>
       <c r="R15">
-        <v>1.77909648556</v>
+        <v>4.2164599682</v>
       </c>
       <c r="S15">
-        <v>0.01199083291003139</v>
+        <v>0.01218079594035178</v>
       </c>
       <c r="T15">
-        <v>0.01199083291003139</v>
+        <v>0.01218079594035178</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3793803333333334</v>
+        <v>0.8991316666666668</v>
       </c>
       <c r="H16">
-        <v>1.138141</v>
+        <v>2.697395</v>
       </c>
       <c r="I16">
-        <v>0.08186779600497247</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="J16">
-        <v>0.08186779600497246</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.622562</v>
+        <v>2.065388333333333</v>
       </c>
       <c r="N16">
-        <v>4.867686</v>
+        <v>6.196165</v>
       </c>
       <c r="O16">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="P16">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="Q16">
-        <v>0.6155681124140001</v>
+        <v>1.857056054463889</v>
       </c>
       <c r="R16">
-        <v>5.540113011726</v>
+        <v>16.713504490175</v>
       </c>
       <c r="S16">
-        <v>0.03733949786618073</v>
+        <v>0.04828310696137939</v>
       </c>
       <c r="T16">
-        <v>0.03733949786618072</v>
+        <v>0.04828310696137939</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3793803333333334</v>
+        <v>0.8991316666666668</v>
       </c>
       <c r="H17">
-        <v>1.138141</v>
+        <v>2.697395</v>
       </c>
       <c r="I17">
-        <v>0.08186779600497247</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="J17">
-        <v>0.08186779600497246</v>
+        <v>0.1287360500886965</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.3665986666666667</v>
+        <v>0.8101876666666666</v>
       </c>
       <c r="N17">
-        <v>1.099796</v>
+        <v>2.430563</v>
       </c>
       <c r="O17">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="P17">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="Q17">
-        <v>0.1390803243595556</v>
+        <v>0.7284653870427779</v>
       </c>
       <c r="R17">
-        <v>1.251722919236</v>
+        <v>6.556188483385</v>
       </c>
       <c r="S17">
-        <v>0.008436417302848644</v>
+        <v>0.01893996259063004</v>
       </c>
       <c r="T17">
-        <v>0.008436417302848642</v>
+        <v>0.01893996259063004</v>
       </c>
     </row>
   </sheetData>
